--- a/biology/Mycologie/Metarhizium/Metarhizium.xlsx
+++ b/biology/Mycologie/Metarhizium/Metarhizium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Metarhizium est un genre de champignons entomopathogènes dans la famille des Clavicipitaceae. Avec l'arrivée des techniques d'empreinte génétique, il est maintenant possible de placer ces champignons dans des taxons corrects. Ce sont des formes asexuées (anamorphes) de champignons ascomycètes. 
-Les isolats appartenant auparavant à Metarhizium anisopliae ont maintenant été attribués à neuf espèces distinctes[1]:
+Les isolats appartenant auparavant à Metarhizium anisopliae ont maintenant été attribués à neuf espèces distinctes:
 M. anisopliae, y inclus beaucoup d'isolats décrit précédemment comme M. anisopliae var. anisopliae
 M. guizhouense (syn. M. taii)
 M. pingshaense
@@ -497,7 +509,7 @@
 M. album
 M. flavoviride
 M. frigidum
-Les téléomorphes des espèces de Metarhizium semblent être des membres du genre Metacordyceps[2]. Metacordyceps taii (comme Cordyceps taii) a été décrit en tant que téléomorphe de Metarhizium taii[3] et a plus tard été synonymisé avec M. anisopliae var. anisopliae[4], mais il est maintenant accepté comme synonyme de M. guizhouense. 
+Les téléomorphes des espèces de Metarhizium semblent être des membres du genre Metacordyceps. Metacordyceps taii (comme Cordyceps taii) a été décrit en tant que téléomorphe de Metarhizium taii et a plus tard été synonymisé avec M. anisopliae var. anisopliae, mais il est maintenant accepté comme synonyme de M. guizhouense. 
 Il n'est pas encore clair si les autres variétés de M. anisopliae ont leurs propres téléomorphes. Cependant, il est possible que certaines souches de M. anisopliae, sinon la plupart, ont perdu la capacité de se reproduire sexuellement.
 </t>
         </is>
